--- a/templates/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/3ASY02_ProteomicsMassSpec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY02_ProteomicsMassSpec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165C167B-BA57-42F2-8338-C8503FBE1B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB502FDA-4CE2-4882-943B-F10874CCE4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{757FE7E8-89EB-4D39-A36E-5AC04BD97F83}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=64edd0b7-c2da-4bd0-b6f3-3d150a6151a8</t>
       </text>
     </comment>
@@ -576,7 +576,7 @@
     <t>http://purl.obolibrary.org/obo/UO_0000010</t>
   </si>
   <si>
-    <t>1.1.5</t>
+    <t>1.1.6</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -1216,7 +1216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
@@ -1884,7 +1884,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -2113,7 +2113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>

--- a/templates/3ASY02_ProteomicsMassSpec.xlsx
+++ b/templates/3ASY02_ProteomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB502FDA-4CE2-4882-943B-F10874CCE4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E57339-EEC1-43D8-A917-E1556E0C4EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY02_ProteomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={757FE7E8-89EB-4D39-A36E-5AC04BD97F83}</author>
+    <author>tc={EF8103DD-BD29-45D6-8FE5-FB39C31CF7CF}</author>
+    <author>tc={77FDCCA6-D67F-4E58-89AA-D67F0A0A6506}</author>
+    <author>tc={EAEF7854-EBC9-4D93-AFDC-6E85BDFFC2B1}</author>
+    <author>tc={C4C5D387-D20D-4521-BDBC-34438A79BB69}</author>
+    <author>tc={709D9C4A-3299-4C55-811E-D998549012B4}</author>
+    <author>tc={116C213B-A688-4024-84DC-BF82032D2B6B}</author>
+    <author>tc={76611217-FF2D-42A1-B390-FC5E2F95EEF9}</author>
+    <author>tc={67A2A05B-82AD-4A3E-B0C8-E2D5DCA334E2}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{757FE7E8-89EB-4D39-A36E-5AC04BD97F83}">
@@ -51,12 +59,76 @@
     id=64edd0b7-c2da-4bd0-b6f3-3d150a6151a8</t>
       </text>
     </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{EF8103DD-BD29-45D6-8FE5-FB39C31CF7CF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{77FDCCA6-D67F-4E58-89AA-D67F0A0A6506}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{EAEF7854-EBC9-4D93-AFDC-6E85BDFFC2B1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{C4C5D387-D20D-4521-BDBC-34438A79BB69}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{709D9C4A-3299-4C55-811E-D998549012B4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{116C213B-A688-4024-84DC-BF82032D2B6B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{76611217-FF2D-42A1-B390-FC5E2F95EEF9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{67A2A05B-82AD-4A3E-B0C8-E2D5DCA334E2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="160">
   <si>
     <t>Source Name</t>
   </si>
@@ -166,9 +238,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -226,18 +295,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>64edd0b7-c2da-4bd0-b6f3-3d150a6151a8</t>
   </si>
   <si>
@@ -245,9 +302,6 @@
   </si>
   <si>
     <t>This protocol focuses on the measurement of the mass spectrometer, its settings and all other relevant data related to this.</t>
-  </si>
-  <si>
-    <t>https://github.com/nfdi4plants/SWATE_templates/wiki/3ASY02_ProteomicsMeasurement</t>
   </si>
   <si>
     <t>annotationTableAverageGoose75</t>
@@ -578,6 +632,21 @@
   <si>
     <t>1.1.6</t>
   </si>
+  <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
+  </si>
 </sst>
 </file>
 
@@ -588,7 +657,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +672,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -859,6 +934,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Oliver Maus" id="{874C5A05-F8A4-4EE3-AFC7-1918BB3ABFA8}" userId="Oliver Maus" providerId="None"/>
+  <person displayName="Kevin F" id="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -1176,6 +1252,30 @@
   <threadedComment ref="A1" dT="2021-11-03T16:53:58.91" personId="{874C5A05-F8A4-4EE3-AFC7-1918BB3ABFA8}" id="{6F5AA29B-29F4-4DB3-9A12-E752F02E3EA3}" parentId="{757FE7E8-89EB-4D39-A36E-5AC04BD97F83}">
     <text>id=64edd0b7-c2da-4bd0-b6f3-3d150a6151a8</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" id="{EF8103DD-BD29-45D6-8FE5-FB39C31CF7CF}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" id="{77FDCCA6-D67F-4E58-89AA-D67F0A0A6506}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" id="{EAEF7854-EBC9-4D93-AFDC-6E85BDFFC2B1}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" id="{C4C5D387-D20D-4521-BDBC-34438A79BB69}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" id="{709D9C4A-3299-4C55-811E-D998549012B4}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" id="{116C213B-A688-4024-84DC-BF82032D2B6B}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" id="{76611217-FF2D-42A1-B390-FC5E2F95EEF9}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{097B3376-3377-4FA9-8A6A-3CABE66E3839}" id="{67A2A05B-82AD-4A3E-B0C8-E2D5DCA334E2}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1214,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1273,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1357,10 +1457,10 @@
         <v>29</v>
       </c>
       <c r="AH1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AI1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AJ1" t="s">
         <v>31</v>
@@ -1368,505 +1468,505 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
         <v>114</v>
       </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" t="s">
         <v>125</v>
       </c>
-      <c r="I2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K2" t="s">
-        <v>131</v>
-      </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AJ2" s="3"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>121</v>
-      </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
         <v>126</v>
       </c>
-      <c r="I3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K3" t="s">
-        <v>132</v>
-      </c>
       <c r="L3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" t="s">
         <v>147</v>
-      </c>
-      <c r="M3" t="s">
-        <v>153</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E4" s="16">
         <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AJ4" s="3"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
         <v>122</v>
       </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" t="s">
-        <v>128</v>
-      </c>
       <c r="I5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AJ5" s="3"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
         <v>123</v>
       </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s">
-        <v>129</v>
-      </c>
       <c r="I6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
         <v>144</v>
       </c>
-      <c r="J6" t="s">
-        <v>150</v>
-      </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AJ6" s="3"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
-      </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AJ7" s="3"/>
     </row>
@@ -1880,9 +1980,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA011F-5496-4EB2-AF3E-FA3119C26B5A}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1898,7 +2000,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,7 +2008,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,7 +2016,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,7 +2024,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,36 +2032,36 @@
         <v>36</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1968,78 +2070,78 @@
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>71</v>
+      <c r="B17" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -2073,33 +2175,27 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="10"/>
+      <c r="A25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="12"/>
+      <c r="A27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2131,40 +2227,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2172,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2194,29 +2290,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -2226,29 +2322,29 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -2258,22 +2354,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -2284,27 +2380,27 @@
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -2314,27 +2410,27 @@
         <v>11</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -2344,22 +2440,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -2370,20 +2466,20 @@
         <v>21</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -2391,25 +2487,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -2420,29 +2516,29 @@
         <v>26</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -2452,22 +2548,22 @@
         <v>30</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -2478,13 +2574,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
